--- a/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/list.xlsx
+++ b/console/Networking/jksChExcel/jksContainerMixinsXlsx/containerRegistry/list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\12.12\JD\console;Management-and-Monitoring;可用性监控控制台中文元素（3份文件）-译文-提交\jksChExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -103,9 +98,6 @@
     </r>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>list_i18nKey_6</t>
   </si>
   <si>
@@ -163,9 +155,6 @@
     </r>
   </si>
   <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
     <t>list_i18nKey_9</t>
   </si>
   <si>
@@ -295,9 +284,6 @@
     </r>
   </si>
   <si>
-    <t>'Please read and check the service agreement'</t>
-  </si>
-  <si>
     <t>list_i18nKey_15</t>
   </si>
   <si>
@@ -330,14 +316,27 @@
     </r>
   </si>
   <si>
-    <t>OK</t>
+    <t>Create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please read and check the service agreement'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -364,6 +363,13 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -385,12 +391,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,15 +741,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="34.25" style="1"/>
+    <col min="1" max="3" width="34.25" style="1"/>
+    <col min="4" max="4" width="34.25" style="3"/>
+    <col min="5" max="16384" width="34.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -795,114 +806,114 @@
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
@@ -911,6 +922,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B15" numberStoredAsText="1"/>
   </ignoredErrors>
